--- a/formatos/formato-maquinas.xlsx
+++ b/formatos/formato-maquinas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67E5D9D-891B-4D32-9FF5-A45D4F29DD90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D43BB82-97B6-4C61-AD1F-64539572C5E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maquinas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Maquina</t>
   </si>
@@ -59,14 +59,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,14 +77,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,18 +101,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -120,75 +114,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Euro" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -476,19 +432,18 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -498,7 +453,7 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -507,15 +462,15 @@
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
